--- a/GameConfigs/Datas/#game.config.xlsx
+++ b/GameConfigs/Datas/#game.config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ModularSurvivor\GameConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A2F6E0-F111-448E-8997-805A982BD3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F851E26-28EE-4277-A5DA-107C50EC5576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53B3FBB6-B116-408D-BCC0-737AAAC6C9D0}"/>
+    <workbookView xWindow="4920" yWindow="3195" windowWidth="28800" windowHeight="15345" xr2:uid="{53B3FBB6-B116-408D-BCC0-737AAAC6C9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameConfigs/Datas/#game.config.xlsx
+++ b/GameConfigs/Datas/#game.config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\ModularSurvivor\GameConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F851E26-28EE-4277-A5DA-107C50EC5576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0537439D-3C76-4AAD-AFC0-A596692727A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3195" windowWidth="28800" windowHeight="15345" xr2:uid="{53B3FBB6-B116-408D-BCC0-737AAAC6C9D0}"/>
+    <workbookView xWindow="38670" yWindow="7680" windowWidth="27570" windowHeight="15345" xr2:uid="{53B3FBB6-B116-408D-BCC0-737AAAC6C9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -484,7 +495,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
